--- a/POA/微博数据分析/TF_IDF关键词前50.xlsx
+++ b/POA/微博数据分析/TF_IDF关键词前50.xlsx
@@ -452,11 +452,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>特朗普</t>
+          <t>加油</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.294165306091964</v>
+        <v>0.267925751575202</v>
       </c>
     </row>
     <row r="3">
@@ -465,11 +465,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>加油</t>
+          <t>口罩</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1524229272121622</v>
+        <v>0.1957014969545388</v>
       </c>
     </row>
     <row r="4">
@@ -478,11 +478,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>大爷</t>
+          <t>疫情</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1233039758217362</v>
+        <v>0.1809335178777587</v>
       </c>
     </row>
     <row r="5">
@@ -491,11 +491,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>打卡</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1141212354835653</v>
+        <v>0.1654802965518986</v>
       </c>
     </row>
     <row r="6">
@@ -504,11 +504,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>疫情</t>
+          <t>新冠</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1078291104012449</v>
+        <v>0.1442738044050411</v>
       </c>
     </row>
     <row r="7">
@@ -517,11 +517,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>致敬</t>
+          <t>肺炎</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.09814417123392991</v>
+        <v>0.1250052735888826</v>
       </c>
     </row>
     <row r="8">
@@ -530,11 +530,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>中考</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.08604080004745308</v>
+        <v>0.09667078870852472</v>
       </c>
     </row>
     <row r="9">
@@ -543,11 +543,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>川普</t>
+          <t>丁香</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0648923382527711</v>
+        <v>0.08082673675808291</v>
       </c>
     </row>
     <row r="10">
@@ -556,11 +556,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>致敬</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.05336989436463045</v>
+        <v>0.07999229318100817</v>
       </c>
     </row>
     <row r="11">
@@ -569,11 +569,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>希望</t>
+          <t>韩红</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.04913980199202297</v>
+        <v>0.07341935389201454</v>
       </c>
     </row>
     <row r="12">
@@ -582,11 +582,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>坚强</t>
+          <t>朱一龙</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.04523141727528615</v>
+        <v>0.07128970159561743</v>
       </c>
     </row>
     <row r="13">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.04410004724747237</v>
+        <v>0.05693187855371167</v>
       </c>
     </row>
     <row r="14">
@@ -608,11 +608,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>感觉</t>
+          <t>病毒</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.04393709244712976</v>
+        <v>0.05605219639328418</v>
       </c>
     </row>
     <row r="15">
@@ -621,11 +621,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>总统</t>
+          <t>病例</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.04325857835401251</v>
+        <v>0.05559179071659957</v>
       </c>
     </row>
     <row r="16">
@@ -634,11 +634,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>试剂盒</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.03977486779530346</v>
+        <v>0.04872353146480438</v>
       </c>
     </row>
     <row r="17">
@@ -647,11 +647,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>伟大</t>
+          <t>白衣战士</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.03831935383232506</v>
+        <v>0.04226812356994949</v>
       </c>
     </row>
     <row r="18">
@@ -660,11 +660,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>不会</t>
+          <t>出院</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.03783012300452661</v>
+        <v>0.0406905464383199</v>
       </c>
     </row>
     <row r="19">
@@ -673,11 +673,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>口罩</t>
+          <t>复工</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.03767671795190182</v>
+        <v>0.04055662332501298</v>
       </c>
     </row>
     <row r="20">
@@ -686,11 +686,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>有钱</t>
+          <t>李汶翰</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.03613061032839555</v>
+        <v>0.03863234767478292</v>
       </c>
     </row>
     <row r="21">
@@ -699,11 +699,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>担心</t>
+          <t>野味</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.03556200227762263</v>
+        <v>0.03834242497870479</v>
       </c>
     </row>
     <row r="22">
@@ -712,11 +712,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>西城</t>
+          <t>隔离</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.03433974612335287</v>
+        <v>0.03785287082663436</v>
       </c>
     </row>
     <row r="23">
@@ -725,11 +725,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>出国</t>
+          <t>陶勇</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.03368512940740196</v>
+        <v>0.03633470081564986</v>
       </c>
     </row>
     <row r="24">
@@ -738,11 +738,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>巴西</t>
+          <t>李兰娟</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.03350485570695827</v>
+        <v>0.03551108228092927</v>
       </c>
     </row>
     <row r="25">
@@ -751,11 +751,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>糟糕</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.03277478326007945</v>
+        <v>0.03469686858212596</v>
       </c>
     </row>
     <row r="26">
@@ -764,11 +764,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>祖国</t>
+          <t>啊啊啊</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.03164938759476222</v>
+        <v>0.03327206112013195</v>
       </c>
     </row>
     <row r="27">
@@ -777,11 +777,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>国家</t>
+          <t>医护人员</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.03115636186318215</v>
+        <v>0.03136938200498764</v>
       </c>
     </row>
     <row r="28">
@@ -790,11 +790,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>零食</t>
+          <t>开学</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.03096482599671164</v>
+        <v>0.03117259274609167</v>
       </c>
     </row>
     <row r="29">
@@ -803,11 +803,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>感谢</t>
+          <t>李文亮</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.02946996365857688</v>
+        <v>0.03078459468452231</v>
       </c>
     </row>
     <row r="30">
@@ -816,11 +816,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>好玩</t>
+          <t>视频</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02941656246199308</v>
+        <v>0.03016009609061519</v>
       </c>
     </row>
     <row r="31">
@@ -829,11 +829,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>放心</t>
+          <t>卫健委</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.02914639284296896</v>
+        <v>0.02928638729547256</v>
       </c>
     </row>
     <row r="32">
@@ -842,11 +842,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>病例</t>
+          <t>钟南山</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.02888143886178657</v>
+        <v>0.02898734921780281</v>
       </c>
     </row>
     <row r="33">
@@ -855,11 +855,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>活成</t>
+          <t>医疗队</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.02821406010990048</v>
+        <v>0.02892722445767246</v>
       </c>
     </row>
     <row r="34">
@@ -868,11 +868,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>薯片</t>
+          <t>疑似病例</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.02756580514850332</v>
+        <v>0.02781936643766523</v>
       </c>
     </row>
     <row r="35">
@@ -881,11 +881,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>包机</t>
+          <t>王俊凯</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.02551147039751406</v>
+        <v>0.02591542067011061</v>
       </c>
     </row>
     <row r="36">
@@ -894,11 +894,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>感染</t>
+          <t>肖战</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.02547466984278999</v>
+        <v>0.02586191326335884</v>
       </c>
     </row>
     <row r="37">
@@ -907,11 +907,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>社会</t>
+          <t>穿山甲</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.02472300514021949</v>
+        <v>0.02434726430720912</v>
       </c>
     </row>
     <row r="38">
@@ -920,11 +920,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>老一辈</t>
+          <t>王一博</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.02362158050717854</v>
+        <v>0.02343624415727828</v>
       </c>
     </row>
     <row r="39">
@@ -933,11 +933,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>控制</t>
+          <t>治愈</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.0233948235802069</v>
+        <v>0.02298354755813309</v>
       </c>
     </row>
     <row r="40">
@@ -946,11 +946,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>实现</t>
+          <t>刘诗</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0231785397022515</v>
+        <v>0.02287733097402143</v>
       </c>
     </row>
     <row r="41">
@@ -959,11 +959,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>防护</t>
+          <t>蝙蝠</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02228054303584392</v>
+        <v>0.02283629818241877</v>
       </c>
     </row>
     <row r="42">
@@ -972,11 +972,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>方舱</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.02216186387492231</v>
+        <v>0.02279415527625696</v>
       </c>
     </row>
     <row r="43">
@@ -985,11 +985,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>撒谎</t>
+          <t>配图</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.02077501270245054</v>
+        <v>0.02169503996761206</v>
       </c>
     </row>
     <row r="44">
@@ -998,11 +998,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>可能</t>
+          <t>医用</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.02063973244708335</v>
+        <v>0.02130202639117201</v>
       </c>
     </row>
     <row r="45">
@@ -1011,11 +1011,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>结束</t>
+          <t>徐坤</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.02057508719701294</v>
+        <v>0.02035065036792582</v>
       </c>
     </row>
     <row r="46">
@@ -1024,11 +1024,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>人数</t>
+          <t>上班</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.01989140127243126</v>
+        <v>0.02026431463940716</v>
       </c>
     </row>
     <row r="47">
@@ -1037,11 +1037,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>地球</t>
+          <t>卧槽</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.01979254961752743</v>
+        <v>0.02026198784069059</v>
       </c>
     </row>
     <row r="48">
@@ -1050,11 +1050,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>道歉</t>
+          <t>酒精</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.01954693048834441</v>
+        <v>0.02026182670841339</v>
       </c>
     </row>
     <row r="49">
@@ -1063,11 +1063,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>选项</t>
+          <t>白衣天使</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.01940901667712701</v>
+        <v>0.02002487631146646</v>
       </c>
     </row>
     <row r="50">
@@ -1076,11 +1076,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>了不起</t>
+          <t>感染</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.01940094806189671</v>
+        <v>0.01984360346650422</v>
       </c>
     </row>
     <row r="51">
@@ -1089,11 +1089,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>讨厌</t>
+          <t>张艺兴</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01930621691075797</v>
+        <v>0.01963721827790212</v>
       </c>
     </row>
   </sheetData>
